--- a/xlsx/生产关系_intext.xlsx
+++ b/xlsx/生产关系_intext.xlsx
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>德意志意識形態</t>
+    <t>德意志意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>馬克思主義哲學</t>
+    <t>马克思主义哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Econ-stub</t>
